--- a/Selenium_demos/src/test/java/Excelfiles/test_keyword.xlsx
+++ b/Selenium_demos/src/test/java/Excelfiles/test_keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15660" windowHeight="6345"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Flag</t>
   </si>
@@ -55,6 +54,9 @@
     <t>open_browser</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
     <t>Open Browser and go to URL</t>
   </si>
   <si>
@@ -64,24 +66,12 @@
     <t>http://www.orbitz.com</t>
   </si>
   <si>
-    <t>Click on Flight Only Radio Button</t>
-  </si>
-  <si>
     <t>click_element</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>//input[@name='search.type']</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>ar.rt.leaveSlice.orig.key</t>
-  </si>
-  <si>
     <t>Enter From City</t>
   </si>
   <si>
@@ -94,37 +84,19 @@
     <t>Enter To City</t>
   </si>
   <si>
-    <t>ar.rt.leaveSlice.dest.key</t>
-  </si>
-  <si>
     <t>DFW</t>
   </si>
   <si>
     <t>Enter Leave Date</t>
   </si>
   <si>
-    <t>ar.rt.leaveSlice.date</t>
-  </si>
-  <si>
-    <t>12/25/2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Return Date </t>
   </si>
   <si>
-    <t>ar.rt.returnSlice.date</t>
-  </si>
-  <si>
     <t>Click on Search Flights</t>
   </si>
   <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>Store Price</t>
-  </si>
-  <si>
-    <t>store_text</t>
+    <t>id</t>
   </si>
   <si>
     <t>Close Browser</t>
@@ -133,10 +105,46 @@
     <t>close_browser</t>
   </si>
   <si>
-    <t>Firefox</t>
+    <t>.//*[@id='tab-flight-tab']</t>
+  </si>
+  <si>
+    <t>flight-origin</t>
+  </si>
+  <si>
+    <t>flight-destination</t>
+  </si>
+  <si>
+    <t>flight-departing</t>
+  </si>
+  <si>
+    <t>flight-returning</t>
+  </si>
+  <si>
+    <t>Click on Flight tab</t>
+  </si>
+  <si>
+    <t>.//*[@id='search-button']</t>
+  </si>
+  <si>
+    <t>Store price</t>
+  </si>
+  <si>
+    <t>Store_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>//div[2]/div/div[2]/div/div/div[1]/span[contains(@class, 'visuallyhidden')]</t>
+  </si>
+  <si>
+    <t>Wait unitll Flight input availble</t>
+  </si>
+  <si>
+    <t>verify_element</t>
+  </si>
+  <si>
+    <t>.//*[@id='aria-option-0']/div</t>
   </si>
 </sst>
 </file>
@@ -199,7 +207,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -576,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -587,16 +598,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -607,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -619,8 +630,9 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
@@ -633,19 +645,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -659,20 +671,18 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
@@ -685,19 +695,19 @@
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -708,23 +718,21 @@
         <v>9</v>
       </c>
       <c r="C8" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
@@ -737,39 +745,45 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="7">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
+      <c r="H10" s="7">
+        <v>43055</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -780,23 +794,60 @@
         <v>9</v>
       </c>
       <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" s="4"/>
@@ -805,6 +856,10 @@
     <row r="15" spans="1:8">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="4"/>
@@ -837,7 +892,6 @@
     <row r="23" spans="3:8">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="4"/>
@@ -846,6 +900,7 @@
     <row r="25" spans="3:8">
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="4"/>
@@ -870,6 +925,14 @@
     <row r="31" spans="3:8">
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
